--- a/Data/metadata/modern_locality_metadata.xlsx
+++ b/Data/metadata/modern_locality_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489684C5-6E76-EC41-ACF0-8C4E2F0DCF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AF9A6-4AEB-814A-B38A-E6DCFE679AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="3360" windowWidth="26040" windowHeight="14880" xr2:uid="{593AD9F8-7A71-F74B-AC89-B15735C33DBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>KAH1705</t>
   </si>
@@ -135,13 +135,25 @@
   </si>
   <si>
     <t>N of Hooper Point, E Spirits Bay</t>
+  </si>
+  <si>
+    <t>Small Agassiz Trawl</t>
+  </si>
+  <si>
+    <t>22nd May 2017</t>
+  </si>
+  <si>
+    <t>S 39 59.60</t>
+  </si>
+  <si>
+    <t>E 174 08.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +195,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +230,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,6 +277,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +620,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,6 +670,24 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="11">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/Data/metadata/modern_locality_metadata.xlsx
+++ b/Data/metadata/modern_locality_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AF9A6-4AEB-814A-B38A-E6DCFE679AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3621732-49A5-C34D-81C7-D845FBB17E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="3360" windowWidth="26040" windowHeight="14880" xr2:uid="{593AD9F8-7A71-F74B-AC89-B15735C33DBC}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>KAH1705</t>
   </si>
   <si>
-    <t>KAH1750</t>
-  </si>
-  <si>
     <t>TS-2</t>
   </si>
   <si>
@@ -143,10 +140,19 @@
     <t>22nd May 2017</t>
   </si>
   <si>
-    <t>S 39 59.60</t>
-  </si>
-  <si>
-    <t>E 174 08.55</t>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>1750 is a typo</t>
+  </si>
+  <si>
+    <t>South Taranaki Bight</t>
+  </si>
+  <si>
+    <t>39˚00.02'S</t>
+  </si>
+  <si>
+    <t>174˚07.40E</t>
   </si>
 </sst>
 </file>
@@ -617,56 +623,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71C558-AC28-0D46-A565-F68F34BD69E4}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -674,178 +683,179 @@
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>52</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42656</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-47.337000000000003</v>
+      </c>
+      <c r="F3" s="7">
+        <v>167.53700000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>129</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>42656</v>
+        <v>42658</v>
       </c>
       <c r="E4" s="7">
-        <v>-47.337000000000003</v>
+        <v>-46.896000000000001</v>
       </c>
       <c r="F4" s="7">
-        <v>167.53700000000001</v>
+        <v>168.23500000000001</v>
       </c>
       <c r="G4" s="7">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42656</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-47.421999999999997</v>
+      </c>
+      <c r="F5" s="7">
+        <v>167.41</v>
+      </c>
+      <c r="G5" s="7">
+        <v>150</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>42658</v>
-      </c>
-      <c r="E5" s="7">
-        <v>-46.896000000000001</v>
-      </c>
-      <c r="F5" s="7">
-        <v>168.23500000000001</v>
-      </c>
-      <c r="G5" s="7">
-        <v>48</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-34.380000000000003</v>
+      </c>
+      <c r="F6" s="7">
+        <v>172.86</v>
+      </c>
+      <c r="G6" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>42656</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-47.421999999999997</v>
-      </c>
-      <c r="F6" s="7">
-        <v>167.41</v>
-      </c>
-      <c r="G6" s="7">
-        <v>150</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-34.380000000000003</v>
-      </c>
-      <c r="F7" s="7">
-        <v>172.86</v>
+      <c r="E7" s="10">
+        <v>-36.46</v>
+      </c>
+      <c r="F7" s="10">
+        <v>174.9</v>
       </c>
       <c r="G7" s="7">
-        <v>54.6</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10">
-        <v>-36.46</v>
-      </c>
-      <c r="F8" s="10">
-        <v>174.9</v>
-      </c>
-      <c r="G8" s="7">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadata/modern_locality_metadata.xlsx
+++ b/Data/metadata/modern_locality_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3621732-49A5-C34D-81C7-D845FBB17E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE848077-6807-3A48-ADFF-2E6BFA7C51FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="3360" windowWidth="26040" windowHeight="14880" xr2:uid="{593AD9F8-7A71-F74B-AC89-B15735C33DBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>KAH1705</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>174˚07.40E</t>
+  </si>
+  <si>
+    <t>TS-10</t>
+  </si>
+  <si>
+    <t>small hash</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,6 +295,12 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71C558-AC28-0D46-A565-F68F34BD69E4}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,6 +870,38 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15">
+        <v>42658</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-47.1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>168.346</v>
+      </c>
+      <c r="G8" s="7">
+        <v>94</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/metadata/modern_locality_metadata.xlsx
+++ b/Data/metadata/modern_locality_metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE848077-6807-3A48-ADFF-2E6BFA7C51FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271FDD4-A2CA-FB46-BCB0-B60AAE7F2B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="3360" windowWidth="26040" windowHeight="14880" xr2:uid="{593AD9F8-7A71-F74B-AC89-B15735C33DBC}"/>
+    <workbookView xWindow="43500" yWindow="-14840" windowWidth="26040" windowHeight="14880" xr2:uid="{593AD9F8-7A71-F74B-AC89-B15735C33DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>KAH1705</t>
   </si>
@@ -159,13 +159,97 @@
   </si>
   <si>
     <t>small hash</t>
+  </si>
+  <si>
+    <t>Z8662</t>
+  </si>
+  <si>
+    <t>M797</t>
+  </si>
+  <si>
+    <t>B224</t>
+  </si>
+  <si>
+    <t>TAN1108/233</t>
+  </si>
+  <si>
+    <t>KWB_Feb</t>
+  </si>
+  <si>
+    <t>KAH0907/15</t>
+  </si>
+  <si>
+    <t>NIWA</t>
+  </si>
+  <si>
+    <t>Feb 27 1997</t>
+  </si>
+  <si>
+    <t>DPG</t>
+  </si>
+  <si>
+    <t>Foveaux Strait</t>
+  </si>
+  <si>
+    <t>May 21 1960</t>
+  </si>
+  <si>
+    <t>Apr 9 1981</t>
+  </si>
+  <si>
+    <t>Ranfurly Bank - central / southern</t>
+  </si>
+  <si>
+    <t>May 31 2011</t>
+  </si>
+  <si>
+    <t>Kahuwhera</t>
+  </si>
+  <si>
+    <t>Feb 2 2010</t>
+  </si>
+  <si>
+    <t>Aug 8 2009</t>
+  </si>
+  <si>
+    <t>Site M39 - Inner Bay of Islands</t>
+  </si>
+  <si>
+    <t>Diver with SCUBA</t>
+  </si>
+  <si>
+    <t>Rhodolith project ZBD200903</t>
+  </si>
+  <si>
+    <t>Biogenic Habitats on the Continental Shelf Leg 2</t>
+  </si>
+  <si>
+    <t>Sled, epibenthic</t>
+  </si>
+  <si>
+    <t>OS2020 Bay of Islands Phase 2, part 2</t>
+  </si>
+  <si>
+    <t>Trawl, fish, bottom</t>
+  </si>
+  <si>
+    <t>Grab,  Orange Peel Large</t>
+  </si>
+  <si>
+    <t>Milford 81, 28.3.81.</t>
+  </si>
+  <si>
+    <t>Underwater hand sampler</t>
+  </si>
+  <si>
+    <t>Benn Gunn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +298,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -257,11 +346,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +419,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71C558-AC28-0D46-A565-F68F34BD69E4}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,8 +1029,210 @@
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>-34.356670000000001</v>
+      </c>
+      <c r="F9">
+        <v>172.77</v>
+      </c>
+      <c r="G9">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>-44.618299999999998</v>
+      </c>
+      <c r="F10">
+        <v>167.8588</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>-46.75</v>
+      </c>
+      <c r="F11">
+        <v>168.28</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>-37.601999999999997</v>
+      </c>
+      <c r="F12">
+        <v>178.8955</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>-35.262650000000001</v>
+      </c>
+      <c r="F13">
+        <v>174.18180000000001</v>
+      </c>
+      <c r="G13">
+        <v>5.4</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>-35.186999999999998</v>
+      </c>
+      <c r="F14">
+        <v>174.11699999999999</v>
+      </c>
+      <c r="G14">
+        <v>34</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>